--- a/flask/static/out_excel/積分表.xlsx
+++ b/flask/static/out_excel/積分表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="遊戲程式邏輯2A" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="遊戲程式邏輯2B" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="互動媒體設計2A" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="互動媒體設計2B" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="遊戲程式邏輯2A" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="遊戲程式邏輯2B" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="互動媒體設計2A" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="互動媒體設計2B" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,6 +452,11 @@
           <t>score</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -465,6 +470,7 @@
       <c r="C2" t="n">
         <v>73</v>
       </c>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -478,6 +484,7 @@
       <c r="C3" t="n">
         <v>120</v>
       </c>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -491,6 +498,7 @@
       <c r="C4" t="n">
         <v>160</v>
       </c>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -504,6 +512,7 @@
       <c r="C5" t="n">
         <v>103</v>
       </c>
+      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -517,6 +526,7 @@
       <c r="C6" t="n">
         <v>130</v>
       </c>
+      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -528,8 +538,9 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>362</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -543,6 +554,7 @@
       <c r="C8" t="n">
         <v>185</v>
       </c>
+      <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -554,8 +566,9 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>310</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -569,6 +582,7 @@
       <c r="C10" t="n">
         <v>101</v>
       </c>
+      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -580,8 +594,9 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>56</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -595,6 +610,7 @@
       <c r="C12" t="n">
         <v>124</v>
       </c>
+      <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -606,8 +622,9 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>257</v>
-      </c>
+        <v>652</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -619,8 +636,9 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>226</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -634,6 +652,7 @@
       <c r="C15" t="n">
         <v>191</v>
       </c>
+      <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -647,6 +666,7 @@
       <c r="C16" t="n">
         <v>235</v>
       </c>
+      <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -660,6 +680,7 @@
       <c r="C17" t="n">
         <v>270</v>
       </c>
+      <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -673,6 +694,7 @@
       <c r="C18" t="n">
         <v>89</v>
       </c>
+      <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -684,8 +706,9 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>307</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -699,6 +722,7 @@
       <c r="C20" t="n">
         <v>135</v>
       </c>
+      <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -712,6 +736,7 @@
       <c r="C21" t="n">
         <v>53</v>
       </c>
+      <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -725,6 +750,7 @@
       <c r="C22" t="n">
         <v>211</v>
       </c>
+      <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -738,6 +764,7 @@
       <c r="C23" t="n">
         <v>146</v>
       </c>
+      <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -751,6 +778,7 @@
       <c r="C24" t="n">
         <v>147</v>
       </c>
+      <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -764,6 +792,7 @@
       <c r="C25" t="n">
         <v>100</v>
       </c>
+      <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -777,6 +806,7 @@
       <c r="C26" t="n">
         <v>156</v>
       </c>
+      <c r="D26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -788,8 +818,9 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>90</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -801,8 +832,9 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>249</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="D28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -816,6 +848,7 @@
       <c r="C29" t="n">
         <v>200</v>
       </c>
+      <c r="D29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -829,6 +862,7 @@
       <c r="C30" t="n">
         <v>171</v>
       </c>
+      <c r="D30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -842,6 +876,7 @@
       <c r="C31" t="n">
         <v>70</v>
       </c>
+      <c r="D31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -855,6 +890,7 @@
       <c r="C32" t="n">
         <v>32</v>
       </c>
+      <c r="D32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -868,6 +904,7 @@
       <c r="C33" t="n">
         <v>60</v>
       </c>
+      <c r="D33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -881,6 +918,7 @@
       <c r="C34" t="n">
         <v>170</v>
       </c>
+      <c r="D34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -894,6 +932,7 @@
       <c r="C35" t="n">
         <v>375</v>
       </c>
+      <c r="D35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -905,8 +944,9 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>248</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="D36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -920,6 +960,7 @@
       <c r="C37" t="n">
         <v>198</v>
       </c>
+      <c r="D37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -933,6 +974,7 @@
       <c r="C38" t="n">
         <v>167</v>
       </c>
+      <c r="D38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -946,6 +988,7 @@
       <c r="C39" t="n">
         <v>201</v>
       </c>
+      <c r="D39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -959,6 +1002,7 @@
       <c r="C40" t="n">
         <v>61</v>
       </c>
+      <c r="D40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -970,8 +1014,9 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>224</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="D41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -983,8 +1028,9 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>80</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="D42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -996,8 +1042,9 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>147</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="D43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1009,8 +1056,9 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>60</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="D44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1024,6 +1072,7 @@
       <c r="C45" t="n">
         <v>200</v>
       </c>
+      <c r="D45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1037,6 +1086,7 @@
       <c r="C46" t="n">
         <v>105</v>
       </c>
+      <c r="D46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1048,8 +1098,9 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>128</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="D47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1061,8 +1112,9 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>60</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="D48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1074,8 +1126,9 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>75</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1089,6 +1142,7 @@
       <c r="C50" t="n">
         <v>100</v>
       </c>
+      <c r="D50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1100,8 +1154,9 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>160</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="D51" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1114,7 +1169,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1138,6 +1193,11 @@
           <t>score</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1151,6 +1211,7 @@
       <c r="C2" t="n">
         <v>100</v>
       </c>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1164,6 +1225,7 @@
       <c r="C3" t="n">
         <v>100</v>
       </c>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1177,6 +1239,7 @@
       <c r="C4" t="n">
         <v>90</v>
       </c>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1190,6 +1253,7 @@
       <c r="C5" t="n">
         <v>319</v>
       </c>
+      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1203,6 +1267,7 @@
       <c r="C6" t="n">
         <v>370</v>
       </c>
+      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1216,6 +1281,7 @@
       <c r="C7" t="n">
         <v>100</v>
       </c>
+      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1229,6 +1295,7 @@
       <c r="C8" t="n">
         <v>262</v>
       </c>
+      <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1242,6 +1309,7 @@
       <c r="C9" t="n">
         <v>185</v>
       </c>
+      <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1255,6 +1323,7 @@
       <c r="C10" t="n">
         <v>185</v>
       </c>
+      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1268,6 +1337,7 @@
       <c r="C11" t="n">
         <v>231</v>
       </c>
+      <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1281,6 +1351,7 @@
       <c r="C12" t="n">
         <v>201</v>
       </c>
+      <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1294,6 +1365,7 @@
       <c r="C13" t="n">
         <v>110</v>
       </c>
+      <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1307,6 +1379,7 @@
       <c r="C14" t="n">
         <v>159</v>
       </c>
+      <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1320,6 +1393,7 @@
       <c r="C15" t="n">
         <v>236</v>
       </c>
+      <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1333,6 +1407,7 @@
       <c r="C16" t="n">
         <v>156</v>
       </c>
+      <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1346,6 +1421,7 @@
       <c r="C17" t="n">
         <v>85</v>
       </c>
+      <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1359,6 +1435,7 @@
       <c r="C18" t="n">
         <v>60</v>
       </c>
+      <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1372,6 +1449,7 @@
       <c r="C19" t="n">
         <v>25</v>
       </c>
+      <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1385,6 +1463,7 @@
       <c r="C20" t="n">
         <v>80</v>
       </c>
+      <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1398,6 +1477,7 @@
       <c r="C21" t="n">
         <v>82</v>
       </c>
+      <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1409,8 +1489,9 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>116</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1424,6 +1505,7 @@
       <c r="C23" t="n">
         <v>156</v>
       </c>
+      <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1437,6 +1519,7 @@
       <c r="C24" t="n">
         <v>100</v>
       </c>
+      <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1450,6 +1533,7 @@
       <c r="C25" t="n">
         <v>50</v>
       </c>
+      <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1463,6 +1547,7 @@
       <c r="C26" t="n">
         <v>548</v>
       </c>
+      <c r="D26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1476,6 +1561,7 @@
       <c r="C27" t="n">
         <v>100</v>
       </c>
+      <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1489,6 +1575,7 @@
       <c r="C28" t="n">
         <v>265</v>
       </c>
+      <c r="D28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1502,6 +1589,7 @@
       <c r="C29" t="n">
         <v>436</v>
       </c>
+      <c r="D29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1515,6 +1603,7 @@
       <c r="C30" t="n">
         <v>308</v>
       </c>
+      <c r="D30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1528,6 +1617,7 @@
       <c r="C31" t="n">
         <v>247</v>
       </c>
+      <c r="D31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1539,8 +1629,9 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>268</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="D32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1554,6 +1645,7 @@
       <c r="C33" t="n">
         <v>191</v>
       </c>
+      <c r="D33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1565,8 +1657,9 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>278</v>
-      </c>
+        <v>498</v>
+      </c>
+      <c r="D34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1578,8 +1671,9 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>193</v>
-      </c>
+        <v>493</v>
+      </c>
+      <c r="D35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1593,6 +1687,7 @@
       <c r="C36" t="n">
         <v>361</v>
       </c>
+      <c r="D36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1606,6 +1701,7 @@
       <c r="C37" t="n">
         <v>378</v>
       </c>
+      <c r="D37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1619,6 +1715,7 @@
       <c r="C38" t="n">
         <v>225</v>
       </c>
+      <c r="D38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1632,6 +1729,7 @@
       <c r="C39" t="n">
         <v>224</v>
       </c>
+      <c r="D39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1645,6 +1743,7 @@
       <c r="C40" t="n">
         <v>355</v>
       </c>
+      <c r="D40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1658,6 +1757,7 @@
       <c r="C41" t="n">
         <v>259</v>
       </c>
+      <c r="D41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1669,8 +1769,9 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>393</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="D42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1684,6 +1785,7 @@
       <c r="C43" t="n">
         <v>322</v>
       </c>
+      <c r="D43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1697,6 +1799,7 @@
       <c r="C44" t="n">
         <v>331</v>
       </c>
+      <c r="D44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1710,6 +1813,7 @@
       <c r="C45" t="n">
         <v>318</v>
       </c>
+      <c r="D45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1723,6 +1827,7 @@
       <c r="C46" t="n">
         <v>249</v>
       </c>
+      <c r="D46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1734,8 +1839,9 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>377</v>
-      </c>
+        <v>577</v>
+      </c>
+      <c r="D47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1749,6 +1855,7 @@
       <c r="C48" t="n">
         <v>395</v>
       </c>
+      <c r="D48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1762,6 +1869,7 @@
       <c r="C49" t="n">
         <v>180</v>
       </c>
+      <c r="D49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1773,8 +1881,9 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>64</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1788,6 +1897,7 @@
       <c r="C51" t="n">
         <v>227</v>
       </c>
+      <c r="D51" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1800,7 +1910,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1824,6 +1934,11 @@
           <t>score</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1837,6 +1952,7 @@
       <c r="C2" t="n">
         <v>100</v>
       </c>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1850,6 +1966,7 @@
       <c r="C3" t="n">
         <v>170</v>
       </c>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1863,578 +1980,567 @@
       <c r="C4" t="n">
         <v>255</v>
       </c>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>109051032</v>
+        <v>109051028</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>曾芃潔</t>
+          <t>余宥蓁</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>50</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>109051042</v>
+        <v>109051032</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>王靖媛</t>
+          <t>曾芃潔</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>100</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>109051046</v>
+        <v>109051042</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>張淯茜</t>
+          <t>王靖媛</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>105</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>109051219</v>
+        <v>109051046</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>林文誠</t>
+          <t>張淯茜</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>55</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>110021057</v>
+        <v>109051219</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>王士誠</t>
+          <t>林文誠</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>140</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>110021061</v>
+        <v>110021057</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>江采菁</t>
+          <t>王士誠</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>135</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>110021072</v>
+        <v>110021061</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>鄭秉益</t>
+          <t>江采菁</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>265</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>110021103</v>
+        <v>110021072</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>黎思言</t>
+          <t>鄭秉益</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>150</v>
-      </c>
+        <v>835</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>110021187</v>
+        <v>110021103</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>張浩千</t>
+          <t>黎思言</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>80</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>110051004</v>
+        <v>110021187</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>洪翊菱</t>
+          <t>張浩千</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>165</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>110051044</v>
+        <v>110051004</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>陳妍攸</t>
+          <t>洪翊菱</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>140</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>110051060</v>
+        <v>110051044</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>謝明芸</t>
+          <t>陳妍攸</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>115</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>110051080</v>
+        <v>110051060</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>劉曼伶</t>
+          <t>謝明芸</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>100</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>110051081</v>
+        <v>110051080</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>王楷珽</t>
+          <t>劉曼伶</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>150</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>110051132</v>
+        <v>110051081</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>雷麻雨田</t>
+          <t>王楷珽</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>100</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>110052027</v>
+        <v>110051132</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>黃思語</t>
+          <t>雷麻雨田</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>120</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111051006</v>
+        <v>110052027</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>張浚瑀</t>
+          <t>黃思語</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>180</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111051007</v>
+        <v>111051006</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>蔡雨婕</t>
+          <t>張浚瑀</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>480</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111051025</v>
+        <v>111051007</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>黃子琳</t>
+          <t>蔡雨婕</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>460</v>
-      </c>
+        <v>530</v>
+      </c>
+      <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111051029</v>
+        <v>111051025</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>王力得</t>
+          <t>黃子琳</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>70</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111051033</v>
+        <v>111051029</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>張鈞偉</t>
+          <t>王力得</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>130</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111051034</v>
+        <v>111051033</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>吳晨郁</t>
+          <t>張鈞偉</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>200</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="D26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111051037</v>
+        <v>111051034</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>施函汝</t>
+          <t>吳晨郁</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>190</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111051039</v>
+        <v>111051037</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>賴彥利</t>
+          <t>施函汝</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>380</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="D28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111051042</v>
+        <v>111051039</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>黃元甫</t>
+          <t>賴彥利</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>220</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="D29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111051043</v>
+        <v>111051042</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>賴亞妮</t>
+          <t>黃元甫</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>585</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="D30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111051054</v>
+        <v>111051043</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>楊子佩</t>
+          <t>賴亞妮</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>255</v>
-      </c>
+        <v>585</v>
+      </c>
+      <c r="D31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111051058</v>
+        <v>111051054</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>陳宣蓉</t>
+          <t>楊子佩</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>300</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="D32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111051065</v>
+        <v>111051058</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>彭心恬</t>
+          <t>陳宣蓉</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>280</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="D33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111051067</v>
+        <v>111051065</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>張小渝</t>
+          <t>彭心恬</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>205</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="D34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111051072</v>
+        <v>111051067</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>林家維</t>
+          <t>張小渝</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>255</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="D35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111051077</v>
+        <v>111051072</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>林桔琳</t>
+          <t>林家維</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>375</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="D36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111051079</v>
+        <v>111051077</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>蔡淳捷</t>
+          <t>林桔琳</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>465</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="D37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111051082</v>
+        <v>111051079</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>陳冠融</t>
+          <t>蔡淳捷</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>310</v>
-      </c>
+        <v>565</v>
+      </c>
+      <c r="D38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111051084</v>
+        <v>111051082</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>張方宜</t>
+          <t>陳冠融</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>150</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="D39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111051096</v>
+        <v>111051084</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>謝梓聰</t>
+          <t>張方宜</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>55</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="D40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111051103</v>
+        <v>111051096</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>陳沛樺</t>
+          <t>謝梓聰</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>115</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>112051072</v>
+        <v>111051103</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>王芷璇</t>
+          <t>陳沛樺</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>130</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="D42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>112051126</v>
+        <v>112051072</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>王毓茹</t>
+          <t>王芷璇</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>100</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="D43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>109021071</v>
+        <v>112051126</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>測試用1</t>
+          <t>王毓茹</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1795</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>109021072</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>測試用2</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>1735</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>109021073</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>測試用3</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>1775</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>109021074</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>測試用4</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>1775</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>109051028</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>余宥蓁</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>120</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="D44" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2447,7 +2553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2471,6 +2577,11 @@
           <t>score</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -2484,6 +2595,7 @@
       <c r="C2" t="n">
         <v>200</v>
       </c>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -2495,8 +2607,9 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -2510,6 +2623,7 @@
       <c r="C4" t="n">
         <v>1050</v>
       </c>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -2523,6 +2637,7 @@
       <c r="C5" t="n">
         <v>100</v>
       </c>
+      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -2536,6 +2651,7 @@
       <c r="C6" t="n">
         <v>160</v>
       </c>
+      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -2547,8 +2663,9 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>110</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -2560,8 +2677,9 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>755</v>
-      </c>
+        <v>935</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -2575,6 +2693,7 @@
       <c r="C9" t="n">
         <v>165</v>
       </c>
+      <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -2588,6 +2707,7 @@
       <c r="C10" t="n">
         <v>680</v>
       </c>
+      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -2599,8 +2719,9 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>355</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2614,6 +2735,7 @@
       <c r="C12" t="n">
         <v>650</v>
       </c>
+      <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2627,6 +2749,7 @@
       <c r="C13" t="n">
         <v>450</v>
       </c>
+      <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2640,6 +2763,7 @@
       <c r="C14" t="n">
         <v>300</v>
       </c>
+      <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2653,6 +2777,7 @@
       <c r="C15" t="n">
         <v>320</v>
       </c>
+      <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2666,6 +2791,7 @@
       <c r="C16" t="n">
         <v>235</v>
       </c>
+      <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2679,6 +2805,7 @@
       <c r="C17" t="n">
         <v>155</v>
       </c>
+      <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2692,6 +2819,7 @@
       <c r="C18" t="n">
         <v>120</v>
       </c>
+      <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2705,6 +2833,7 @@
       <c r="C19" t="n">
         <v>100</v>
       </c>
+      <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2718,6 +2847,7 @@
       <c r="C20" t="n">
         <v>310</v>
       </c>
+      <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2729,8 +2859,9 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>495</v>
-      </c>
+        <v>675</v>
+      </c>
+      <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2744,6 +2875,7 @@
       <c r="C22" t="n">
         <v>100</v>
       </c>
+      <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2757,6 +2889,7 @@
       <c r="C23" t="n">
         <v>150</v>
       </c>
+      <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2770,6 +2903,7 @@
       <c r="C24" t="n">
         <v>0</v>
       </c>
+      <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2783,6 +2917,7 @@
       <c r="C25" t="n">
         <v>350</v>
       </c>
+      <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2796,6 +2931,7 @@
       <c r="C26" t="n">
         <v>100</v>
       </c>
+      <c r="D26" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/flask/static/out_excel/積分表.xlsx
+++ b/flask/static/out_excel/積分表.xlsx
@@ -468,9 +468,11 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>73</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>146</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -482,9 +484,11 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>120</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="D3" t="n">
+        <v>180</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -496,9 +500,11 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>160</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="D4" t="n">
+        <v>260</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -524,9 +530,11 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>130</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="D6" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -538,9 +546,11 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>417</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>834</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -552,9 +562,11 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>185</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>370</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -566,9 +578,11 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>390</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>780</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -580,9 +594,11 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>101</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>202</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -608,9 +624,11 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>124</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>248</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -622,9 +640,11 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>652</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1304</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -636,9 +656,11 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>231</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>462</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -650,9 +672,11 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>191</v>
-      </c>
-      <c r="D15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>382</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -664,9 +688,11 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>235</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>470</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -692,9 +718,11 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>89</v>
-      </c>
-      <c r="D18" t="inlineStr"/>
+        <v>9</v>
+      </c>
+      <c r="D18" t="n">
+        <v>160</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -706,9 +734,11 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>312</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>624</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -720,9 +750,11 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>135</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>270</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -734,9 +766,11 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>53</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>106</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -748,9 +782,11 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>211</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>422</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -776,9 +812,11 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>147</v>
-      </c>
-      <c r="D24" t="inlineStr"/>
+        <v>27</v>
+      </c>
+      <c r="D24" t="n">
+        <v>240</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -790,9 +828,11 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>100</v>
-      </c>
-      <c r="D25" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="D25" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -804,9 +844,11 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>156</v>
-      </c>
-      <c r="D26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>312</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -818,9 +860,11 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>100</v>
-      </c>
-      <c r="D27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>210</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -860,9 +904,11 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>171</v>
-      </c>
-      <c r="D30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>342</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -874,9 +920,11 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>70</v>
-      </c>
-      <c r="D31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -888,9 +936,11 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>32</v>
-      </c>
-      <c r="D32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -902,9 +952,11 @@
         </is>
       </c>
       <c r="C33" t="n">
+        <v>30</v>
+      </c>
+      <c r="D33" t="n">
         <v>60</v>
       </c>
-      <c r="D33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -930,9 +982,11 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>375</v>
-      </c>
-      <c r="D35" t="inlineStr"/>
+        <v>260</v>
+      </c>
+      <c r="D35" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -944,9 +998,11 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>408</v>
-      </c>
-      <c r="D36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>816</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -986,9 +1042,11 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>201</v>
-      </c>
-      <c r="D39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>402</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1000,9 +1058,11 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>61</v>
-      </c>
-      <c r="D40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>122</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1014,9 +1074,11 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>239</v>
-      </c>
-      <c r="D41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>578</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1028,9 +1090,11 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>190</v>
-      </c>
-      <c r="D42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>380</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1056,9 +1120,11 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>220</v>
-      </c>
-      <c r="D44" t="inlineStr"/>
+        <v>120</v>
+      </c>
+      <c r="D44" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1084,9 +1150,11 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>105</v>
-      </c>
-      <c r="D46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>210</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1098,9 +1166,11 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>138</v>
-      </c>
-      <c r="D47" t="inlineStr"/>
+        <v>38</v>
+      </c>
+      <c r="D47" t="n">
+        <v>400</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1112,9 +1182,11 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>460</v>
-      </c>
-      <c r="D48" t="inlineStr"/>
+        <v>360</v>
+      </c>
+      <c r="D48" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1126,9 +1198,11 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>60</v>
-      </c>
-      <c r="D49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1154,9 +1228,11 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>200</v>
-      </c>
-      <c r="D51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>400</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1237,9 +1313,11 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>90</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>180</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1293,9 +1371,11 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>262</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>524</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1307,9 +1387,11 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>185</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>370</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1321,9 +1403,11 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>185</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
+        <v>35</v>
+      </c>
+      <c r="D10" t="n">
+        <v>300</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1363,9 +1447,11 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>110</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>220</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1391,9 +1477,11 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>236</v>
-      </c>
-      <c r="D15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>472</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1405,9 +1493,11 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>156</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="D16" t="n">
+        <v>280</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1419,9 +1509,11 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>85</v>
-      </c>
-      <c r="D17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>170</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1447,9 +1539,11 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>25</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1489,9 +1583,11 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>136</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
+        <v>36</v>
+      </c>
+      <c r="D22" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1545,9 +1641,11 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>548</v>
-      </c>
-      <c r="D26" t="inlineStr"/>
+        <v>148</v>
+      </c>
+      <c r="D26" t="n">
+        <v>800</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1573,9 +1671,11 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>265</v>
-      </c>
-      <c r="D28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>530</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1587,9 +1687,11 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>436</v>
-      </c>
-      <c r="D29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>872</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1601,9 +1703,11 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>308</v>
-      </c>
-      <c r="D30" t="inlineStr"/>
+        <v>8</v>
+      </c>
+      <c r="D30" t="n">
+        <v>600</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1615,9 +1719,11 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>247</v>
-      </c>
-      <c r="D31" t="inlineStr"/>
+        <v>97</v>
+      </c>
+      <c r="D31" t="n">
+        <v>300</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1643,9 +1749,11 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>191</v>
-      </c>
-      <c r="D33" t="inlineStr"/>
+        <v>41</v>
+      </c>
+      <c r="D33" t="n">
+        <v>300</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1657,9 +1765,11 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>498</v>
-      </c>
-      <c r="D34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>996</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1671,9 +1781,11 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>493</v>
-      </c>
-      <c r="D35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>986</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1685,9 +1797,11 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>361</v>
-      </c>
-      <c r="D36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>722</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1699,9 +1813,11 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>378</v>
-      </c>
-      <c r="D37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>756</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1713,9 +1829,11 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>225</v>
-      </c>
-      <c r="D38" t="inlineStr"/>
+        <v>15</v>
+      </c>
+      <c r="D38" t="n">
+        <v>420</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1727,9 +1845,11 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>224</v>
-      </c>
-      <c r="D39" t="inlineStr"/>
+        <v>124</v>
+      </c>
+      <c r="D39" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1741,9 +1861,11 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>355</v>
-      </c>
-      <c r="D40" t="inlineStr"/>
+        <v>35</v>
+      </c>
+      <c r="D40" t="n">
+        <v>640</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1755,9 +1877,11 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>259</v>
-      </c>
-      <c r="D41" t="inlineStr"/>
+        <v>59</v>
+      </c>
+      <c r="D41" t="n">
+        <v>400</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1769,9 +1893,11 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>453</v>
-      </c>
-      <c r="D42" t="inlineStr"/>
+        <v>153</v>
+      </c>
+      <c r="D42" t="n">
+        <v>600</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1783,9 +1909,11 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>322</v>
-      </c>
-      <c r="D43" t="inlineStr"/>
+        <v>22</v>
+      </c>
+      <c r="D43" t="n">
+        <v>600</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1797,9 +1925,11 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>331</v>
-      </c>
-      <c r="D44" t="inlineStr"/>
+        <v>15</v>
+      </c>
+      <c r="D44" t="n">
+        <v>512</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1825,9 +1955,11 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>249</v>
-      </c>
-      <c r="D46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>498</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1839,9 +1971,11 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>577</v>
-      </c>
-      <c r="D47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1154</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1867,9 +2001,11 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>180</v>
-      </c>
-      <c r="D49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>360</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1881,9 +2017,11 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>84</v>
-      </c>
-      <c r="D50" t="inlineStr"/>
+        <v>34</v>
+      </c>
+      <c r="D50" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1992,9 +2130,11 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>120</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>240</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -2034,9 +2174,11 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>105</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>210</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -2048,9 +2190,11 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>55</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -2062,9 +2206,11 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>240</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>480</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -2090,9 +2236,11 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>835</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
+        <v>115</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1440</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2104,9 +2252,11 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>150</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>300</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2118,9 +2268,11 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>80</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>160</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2132,9 +2284,11 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>165</v>
-      </c>
-      <c r="D15" t="inlineStr"/>
+        <v>95</v>
+      </c>
+      <c r="D15" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2146,9 +2300,11 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>190</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>380</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2160,9 +2316,11 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>115</v>
-      </c>
-      <c r="D17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>230</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2216,9 +2374,11 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>120</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>240</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2230,9 +2390,11 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>460</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>920</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2244,9 +2406,11 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>530</v>
-      </c>
-      <c r="D23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1060</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2258,9 +2422,11 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>460</v>
-      </c>
-      <c r="D24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>920</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2272,9 +2438,11 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>70</v>
-      </c>
-      <c r="D25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2286,9 +2454,11 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>130</v>
-      </c>
-      <c r="D26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>260</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2300,9 +2470,11 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>440</v>
-      </c>
-      <c r="D27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>880</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2314,9 +2486,11 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>410</v>
-      </c>
-      <c r="D28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>820</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2328,9 +2502,11 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>430</v>
-      </c>
-      <c r="D29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>860</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2342,9 +2518,11 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>220</v>
-      </c>
-      <c r="D30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>440</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2356,9 +2534,11 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>585</v>
-      </c>
-      <c r="D31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1170</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2370,9 +2550,11 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>305</v>
-      </c>
-      <c r="D32" t="inlineStr"/>
+        <v>55</v>
+      </c>
+      <c r="D32" t="n">
+        <v>500</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2384,9 +2566,11 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>380</v>
-      </c>
-      <c r="D33" t="inlineStr"/>
+        <v>130</v>
+      </c>
+      <c r="D33" t="n">
+        <v>500</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2398,9 +2582,11 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>280</v>
-      </c>
-      <c r="D34" t="inlineStr"/>
+        <v>15</v>
+      </c>
+      <c r="D34" t="n">
+        <v>410</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2426,9 +2612,11 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>255</v>
-      </c>
-      <c r="D36" t="inlineStr"/>
+        <v>55</v>
+      </c>
+      <c r="D36" t="n">
+        <v>400</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2440,9 +2628,11 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>375</v>
-      </c>
-      <c r="D37" t="inlineStr"/>
+        <v>15</v>
+      </c>
+      <c r="D37" t="n">
+        <v>720</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2454,9 +2644,11 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>565</v>
-      </c>
-      <c r="D38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1130</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2468,9 +2660,11 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>310</v>
-      </c>
-      <c r="D39" t="inlineStr"/>
+        <v>60</v>
+      </c>
+      <c r="D39" t="n">
+        <v>500</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2482,9 +2676,11 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>200</v>
-      </c>
-      <c r="D40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>400</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2510,9 +2706,11 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>115</v>
-      </c>
-      <c r="D42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>230</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2524,9 +2722,11 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>190</v>
-      </c>
-      <c r="D43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>380</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2538,9 +2738,11 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>250</v>
-      </c>
-      <c r="D44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>500</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2649,9 +2851,11 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>160</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
+        <v>15</v>
+      </c>
+      <c r="D6" t="n">
+        <v>290</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -2663,9 +2867,11 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>130</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
+        <v>15</v>
+      </c>
+      <c r="D7" t="n">
+        <v>230</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -2677,7 +2883,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>935</v>
+        <v>1005</v>
       </c>
       <c r="D8" t="inlineStr"/>
     </row>
@@ -2691,9 +2897,11 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>165</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>330</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -2705,9 +2913,11 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>680</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
+        <v>280</v>
+      </c>
+      <c r="D10" t="n">
+        <v>800</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -2719,9 +2929,11 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>375</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
+        <v>225</v>
+      </c>
+      <c r="D11" t="n">
+        <v>300</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2733,9 +2945,11 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>650</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
+        <v>350</v>
+      </c>
+      <c r="D12" t="n">
+        <v>600</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2775,9 +2989,11 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>320</v>
-      </c>
-      <c r="D15" t="inlineStr"/>
+        <v>120</v>
+      </c>
+      <c r="D15" t="n">
+        <v>400</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2803,9 +3019,11 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>155</v>
-      </c>
-      <c r="D17" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="D17" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2831,9 +3049,11 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>100</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
+        <v>25</v>
+      </c>
+      <c r="D19" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2845,9 +3065,11 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>310</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>620</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2859,9 +3081,11 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>675</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1350</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
